--- a/ME_data_Nov13.xlsx
+++ b/ME_data_Nov13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pw379\Box Sync\_New_projects\G7 RECC priv\___JIE SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75343CB1-D1FD-43D7-AC95-9F0654A9C571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A28D3-9CD1-406A-ADA4-C43DAB41EF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="180" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="65" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="179">
   <si>
     <t>Electricity</t>
   </si>
@@ -583,23 +583,6 @@
     <t>Bauer et al. (2015) The environmental performance of current and future passenger vehicles: Life Cycle Assessment based on a novel scenario analysis framework. Applied Energy.</t>
   </si>
   <si>
-    <t>2019 Journal of Industrial Ecology – www.wileyonlinelibrary.com/journal/jie</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Rounded MT Bold"/>
-        <family val="2"/>
-      </rPr>
-      <t>SUPPORTING INFORMATION FOR:</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">P. Wolfram, Q. Tu, N. Heeren, S. Pauliuk, E. Hertwich (2020). Material efficiency for immediate climate change mitigation of passenger vehicles. </t>
     </r>
@@ -615,7 +598,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This supporting information provides all data points necessary to compute the results presented in this work. All data is described in section 2 of the manuscript. The data points can be used in conjunction with the provided MATLAB script to reproduce the presented results. </t>
+    <t xml:space="preserve">This supporting information provides all data points necessary to compute the results presented in Wolfram et al. (2020) "Material efficiency for immediate climate change mitigation of passenger vehicles", Journal of Industrial Ecology. All data is described in section 2 of the manuscript. The data points can be used in conjunction with the provided MATLAB script to reproduce the presented results. </t>
   </si>
 </sst>
 </file>
@@ -628,7 +611,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,21 +799,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
     <font>
@@ -1192,7 +1163,7 @@
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,28 +1216,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1598,162 +1563,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA54BF91-46A6-461E-905F-BD1C06F4AB54}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" ht="17.600000000000001">
+      <c r="A1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.600000000000001">
+      <c r="A2" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.600000000000001">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:10" ht="37.299999999999997" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.600000000000001">
-      <c r="A4" s="48"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.600000000000001">
-      <c r="A5" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:10" ht="37.299999999999997" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" spans="1:10" ht="63" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:H9"/>
-    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A2:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="2017 Journal of Industrial Ecology – www.wileyonlinelibrary.com/journal/jie" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9364,11 +9286,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="AH38" sqref="AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -11317,7 +11239,7 @@
         <v>627.33515052000007</v>
       </c>
       <c r="K36" s="3" t="str">
-        <f t="shared" ref="K36:K67" si="3">IF(SUM(B36:I36)=J36,"true","false")</f>
+        <f t="shared" ref="K36:K51" si="3">IF(SUM(B36:I36)=J36,"true","false")</f>
         <v>true</v>
       </c>
       <c r="L36" s="32"/>
@@ -18574,7 +18496,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="44" t="str">
+      <c r="A28" s="42" t="str">
         <f t="shared" ref="A28:A47" si="3">A4&amp;" LW"</f>
         <v>ICEV-g micro LW</v>
       </c>
@@ -18596,7 +18518,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="44" t="str">
+      <c r="A30" s="42" t="str">
         <f t="shared" si="3"/>
         <v>ICEV-g van/SUV LW</v>
       </c>
@@ -18607,7 +18529,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="44" t="str">
+      <c r="A31" s="42" t="str">
         <f t="shared" si="3"/>
         <v>ICEV-g LT LW</v>
       </c>
@@ -18618,7 +18540,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="44" t="str">
+      <c r="A32" s="42" t="str">
         <f t="shared" si="3"/>
         <v>ICEV-d micro LW</v>
       </c>
@@ -18629,7 +18551,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="44" t="str">
+      <c r="A33" s="42" t="str">
         <f t="shared" si="3"/>
         <v>ICEV-d PC LW</v>
       </c>
@@ -18640,7 +18562,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="44" t="str">
+      <c r="A34" s="42" t="str">
         <f t="shared" si="3"/>
         <v>ICEV-d van/SUV LW</v>
       </c>
@@ -18651,7 +18573,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="44" t="str">
+      <c r="A35" s="42" t="str">
         <f t="shared" si="3"/>
         <v>ICEV-d LT LW</v>
       </c>
@@ -18662,7 +18584,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="44" t="str">
+      <c r="A36" s="42" t="str">
         <f t="shared" si="3"/>
         <v>HEV micro LW</v>
       </c>
@@ -18674,7 +18596,7 @@
       <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="44" t="str">
+      <c r="A37" s="42" t="str">
         <f t="shared" si="3"/>
         <v>HEV PC LW</v>
       </c>
@@ -18685,7 +18607,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="44" t="str">
+      <c r="A38" s="42" t="str">
         <f t="shared" si="3"/>
         <v>HEV van/SUV LW</v>
       </c>
@@ -18696,7 +18618,7 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="44" t="str">
+      <c r="A39" s="42" t="str">
         <f t="shared" si="3"/>
         <v>HEV LT LW</v>
       </c>
@@ -18707,7 +18629,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="44" t="str">
+      <c r="A40" s="42" t="str">
         <f t="shared" si="3"/>
         <v>PHEV micro LW</v>
       </c>
@@ -18718,7 +18640,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="44" t="str">
+      <c r="A41" s="42" t="str">
         <f t="shared" si="3"/>
         <v>PHEV PC LW</v>
       </c>
@@ -18729,7 +18651,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="44" t="str">
+      <c r="A42" s="42" t="str">
         <f t="shared" si="3"/>
         <v>PHEV van/SUV LW</v>
       </c>
@@ -18740,7 +18662,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="44" t="str">
+      <c r="A43" s="42" t="str">
         <f t="shared" si="3"/>
         <v>PHEV LT LW</v>
       </c>
@@ -18751,7 +18673,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="44" t="str">
+      <c r="A44" s="42" t="str">
         <f t="shared" si="3"/>
         <v>BEV micro LW</v>
       </c>
@@ -18762,7 +18684,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="44" t="str">
+      <c r="A45" s="42" t="str">
         <f t="shared" si="3"/>
         <v>BEV PC LW</v>
       </c>
@@ -18773,7 +18695,7 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="44" t="str">
+      <c r="A46" s="42" t="str">
         <f t="shared" si="3"/>
         <v>BEV van/SUV LW</v>
       </c>
@@ -18784,7 +18706,7 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="44" t="str">
+      <c r="A47" s="42" t="str">
         <f t="shared" si="3"/>
         <v>BEV LT LW</v>
       </c>
@@ -18795,7 +18717,7 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="44" t="str">
+      <c r="A48" s="42" t="str">
         <f>A24&amp;" LW"</f>
         <v>HFCEV micro LW</v>
       </c>
@@ -18806,7 +18728,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="44" t="str">
+      <c r="A49" s="42" t="str">
         <f>A25&amp;" LW"</f>
         <v>HFCEV PC LW</v>
       </c>
@@ -18817,7 +18739,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="44" t="str">
+      <c r="A50" s="42" t="str">
         <f>A26&amp;" LW"</f>
         <v>HFCEV van/SUV LW</v>
       </c>
@@ -18828,7 +18750,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="44" t="str">
+      <c r="A51" s="42" t="str">
         <f>A27&amp;" LW"</f>
         <v>HFCEV LT LW</v>
       </c>
